--- a/biology/Botanique/Nepenthes_khasiana/Nepenthes_khasiana.xlsx
+++ b/biology/Botanique/Nepenthes_khasiana/Nepenthes_khasiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes khasiana est une plante carnivore endémique de la région du Meghalaya en Inde du Nord-est. C'est le seul népenthès du sous-continent Indien et des contreforts de l'Himalaya. Sa distribution très localisée en fait une espèce vulnérable dans son habitat naturel.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie et Folklore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Khasiana vient des Khasi Hills, montagnes arborées de cette région de l'Inde.
 De nombreuses légendes entourent la plante, et les populations locales l'appellent fleur du démon ou panier du diable au regard de sa morphologie étonnante.
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
